--- a/doc/page/Task.xlsx
+++ b/doc/page/Task.xlsx
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>演讲信息列表增删改、分类增改删(禁用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +126,10 @@
   </si>
   <si>
     <t>.用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演讲信息列表增删改、分类增改删(禁用),图片上传(富文本编辑)。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,14 +485,14 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.25" customWidth="1"/>
+    <col min="3" max="3" width="62.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -514,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -547,10 +547,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -561,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -577,10 +577,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -588,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -599,10 +599,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -613,15 +613,15 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/doc/page/Task.xlsx
+++ b/doc/page/Task.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>.活动/线下</t>
   </si>
@@ -51,85 +51,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>照片、介绍、微信，微博，分享，评论，相关演讲，最近热门，订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.列表搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动搜索、活动分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加、删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动列表增删改、活动分类增删改(禁用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询、单个显示</t>
+  </si>
+  <si>
+    <t>建议提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台编辑</t>
+  </si>
+  <si>
+    <t>前台显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息列表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注册、登录、（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码找回？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类增改删(禁用)</t>
+  </si>
+  <si>
+    <t>演讲信息列表增删改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传(富文本编辑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台用户（权限）管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>.评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>照片、介绍、微信，微博，分享，评论，相关演讲，最近热门，订阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.列表搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模糊查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册、登录、（密码找回？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动搜索、活动分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加、删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表查询、后台删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动列表增删改、活动分类增删改(禁用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表查询、单个显示</t>
-  </si>
-  <si>
-    <t>建议提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台编辑</t>
-  </si>
-  <si>
-    <t>前台显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息列表查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演讲信息列表增删改、分类增改删(禁用),图片上传(富文本编辑)。</t>
+    <t>评论列表查询、后台删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,16 +202,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,17 +246,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,152 +590,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <f>SUM(C2:C12)</f>
+        <v>9</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>SUM(E2:E12)</f>
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <f>C14+E14</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:E11"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
